--- a/data/trans_bre/P6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -625,37 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>127,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>75,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,48</t>
+          <t>-1,8; 9,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 14,69</t>
+          <t>0,25; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 22,7</t>
+          <t>-4,12; 12,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 23,14</t>
+          <t>-0,11; 18,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 254,92</t>
+          <t>-22,05; 225,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 372,98</t>
+          <t>-6,68; 629,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 283,14</t>
+          <t>-31,89; 184,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 322,07</t>
+          <t>-5,82; 329,32</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,5%</t>
+          <t>-33,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,42%</t>
+          <t>-30,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-27,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>-10,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 2,3</t>
+          <t>-8,41; 2,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 4,25</t>
+          <t>-13,01; 2,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 6,46</t>
+          <t>-9,59; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 6,33</t>
+          <t>-7,72; 5,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,67; 39,05</t>
+          <t>-68,58; 41,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 40,53</t>
+          <t>-67,55; 35,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 53,69</t>
+          <t>-61,78; 26,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 48,2</t>
+          <t>-43,25; 56,49</t>
         </is>
       </c>
     </row>
@@ -825,37 +825,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-45,86%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,86%</t>
+          <t>-14,97%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 5,18</t>
+          <t>-1,53; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 2,34</t>
+          <t>-3,64; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,52; -0,12</t>
+          <t>-6,36; 0,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,56</t>
+          <t>-5,03; 2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 218,72</t>
+          <t>-32,89; 205,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 44,95</t>
+          <t>-53,9; 131,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,02; 1,96</t>
+          <t>-69,05; 20,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,98; 64,39</t>
+          <t>-53,93; 57,94</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>49,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,61</t>
+          <t>2,84; 11,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,88</t>
+          <t>0,97; 9,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 11,73</t>
+          <t>-0,36; 7,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,89</t>
+          <t>-0,43; 7,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,32; 304,67</t>
+          <t>32,05; 317,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 229,74</t>
+          <t>6,65; 268,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 199,23</t>
+          <t>-7,1; 179,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 145,64</t>
+          <t>-5,87; 152,34</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>111,41%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>95,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,22</t>
+          <t>-3,5; 7,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,62</t>
+          <t>-5,06; 6,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 17,39</t>
+          <t>0,64; 9,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 14,2</t>
+          <t>1,31; 11,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 119,68</t>
+          <t>-32,65; 111,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 103,07</t>
+          <t>-41,26; 105,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 324,7</t>
+          <t>4,4; 271,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,96; 266,6</t>
+          <t>16,12; 238,25</t>
         </is>
       </c>
     </row>
@@ -1125,37 +1125,37 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>71,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,5</t>
+          <t>-4,46; 3,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,54</t>
+          <t>-4,04; 5,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 8,41</t>
+          <t>-1,72; 5,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 9,79</t>
+          <t>-1,24; 7,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,52; 119,93</t>
+          <t>-57,84; 136,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 193,93</t>
+          <t>-64,86; 226,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 356,04</t>
+          <t>-42,45; 358,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 389,58</t>
+          <t>-27,86; 330,11</t>
         </is>
       </c>
     </row>
@@ -1225,37 +1225,37 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>29,96%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,59</t>
+          <t>-0,12; 3,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,83</t>
+          <t>-0,82; 3,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,6</t>
+          <t>-1,1; 3,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,2</t>
+          <t>0,14; 4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 65,9</t>
+          <t>-1,52; 67,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 48,32</t>
+          <t>-10,33; 60,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 57,19</t>
+          <t>-13,76; 48,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 73,27</t>
+          <t>1,1; 68,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>52,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>127,64%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>45,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>75,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.527127689418523</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.920493091581237</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.728336281370907</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.57244646550943</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5252913416537994</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7733969360644132</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4758602720828144</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7601613448246602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 9,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 13,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 12,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 18,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; 225,74</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 629,66</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-31,89; 184,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 329,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.797205221855687</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.276097516938185</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.212209581347522</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6455409570631416</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2205363980599292</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3723472326522268</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2584486673845093</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1314341004052554</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.313236215878156</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.55330732353507</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.40668269107392</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.2185379215483</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.25744816128914</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.923159242415863</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.120043306247674</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.519201246490277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,88</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-33,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-30,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-27,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; 2,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 2,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 2,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 5,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-68,58; 41,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-67,55; 35,35</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-61,78; 26,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-43,25; 56,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.017310569177583</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.867581410450151</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.620349066945161</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.805938405566666</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3348752952655258</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2509856706935851</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1955544939319113</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1512748534879509</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>47,16%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-42,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-14,97%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.407909082710287</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.17408803718094</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.15814744518137</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.45671532821252</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.685759678603315</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6860243352053984</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5501570048693716</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4796258308377014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 5,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 4,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 0,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 2,67</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-32,89; 205,95</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-53,9; 131,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-69,05; 20,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,93; 57,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.046839769523184</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.392637729297133</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.755530079721282</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.879729916868793</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4179908142523266</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.6305666027675964</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4460670797573158</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4628267873432592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>131,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>91,58%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>60,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,79%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.845480090322653</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.04646233846150039</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.335691335193676</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.496512041422125</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4716494742448956</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.006737370205035846</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4597384854307442</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1662460543962684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 11,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 9,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 7,46</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 7,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>32,05; 317,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 268,76</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 179,22</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 152,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.530886127525914</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.509550488067079</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.44338863101066</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.381712821842696</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3289401956407964</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5384606709418316</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7503375688282691</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5728367061756052</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.283418232151652</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.590428269988414</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.301223521727733</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.98326221448804</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.059519102905643</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.172358692188958</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.06728060599703557</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5014555305088583</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,49%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,66%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>93,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>95,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 7,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 6,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 9,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 11,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 111,89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-41,26; 105,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 271,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,12; 238,25</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.2001146840839</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.084267872420789</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.067531478645694</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.592046896029692</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.317898137799826</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6543905161987614</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5685497800788425</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4179425184916931</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>59,08%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>71,22%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.835972787800333</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7046048733662104</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8167916710459809</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.482575647625262</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3205159752334594</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1654109723391806</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08748992729834315</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.146944208601693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 3,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 5,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 5,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 7,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-57,84; 136,83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-64,86; 226,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-42,45; 358,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-27,86; 330,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.62902080113086</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.42322198828617</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.40095071427417</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.70103396796074</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.178060125969232</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.968182923542507</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.906476347848576</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.421222664822572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.537847451983787</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7533146000962221</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>9.23779223694107</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>8.05761370673561</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.174904463704916</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.06274510530955257</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.111824331376825</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.031391664919094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 3,68</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 3,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 3,02</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 4,8</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 67,8</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 60,8</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 48,9</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 68,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.497183243834638</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.010981077179053</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.040372101901878</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.34589480895534</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.3264500681708982</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4524592628169421</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.1405761342494332</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.2231047188464775</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.293513631815826</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.508881661758647</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>17.48867326163646</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>14.66526622403017</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.118879620880189</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8259066504366849</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>3.218003162916743</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.690475232438748</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.255015174784285</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.7217443460115651</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.204127148136358</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>4.237988130922629</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.04817024069743941</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1298745564447346</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.6464739590889438</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.9563448462475568</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-4.457247038452152</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.460561600264636</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.553308992875969</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.148711039040966</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5784433888357975</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.6757745057570571</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.3875087060317533</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.2735098646731953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3.72142447133733</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.830656847277446</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>9.259299226333152</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>8.867761075068001</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.36825873983614</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.852213612226368</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>3.367895032165378</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.824425545878279</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.808725879023582</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.219871823010926</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.922216431902526</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3.098222081299465</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.282959775193372</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1345656359614057</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1669671167937112</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3004983690394663</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.1206754416589193</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.642953415380219</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.255728621274717</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08183440543450424</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.01520537504600291</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.156735834052829</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1005462181388755</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.005708751029578823</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.675846138003667</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.733224485117813</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.229210061585846</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>5.692809223023959</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.6779663307955407</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4975657813338628</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.5234100623306269</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.6672968637828525</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
